--- a/misc/api-specs.xlsx
+++ b/misc/api-specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t xml:space="preserve">Endpoints</t>
   </si>
@@ -52,97 +52,179 @@
     <t xml:space="preserve">get</t>
   </si>
   <si>
-    <t xml:space="preserve">{ data: [ {name, title...etc}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data should be an array of circulars with relevant properites</t>
+    <t xml:space="preserve">{ data: [ {name, description,date ,id}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should be an array of circulars with relevant properites, all properties are string</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/circulars</t>
   </si>
   <si>
-    <t xml:space="preserve">Teacher specific circulars</t>
+    <t xml:space="preserve">not needed</t>
   </si>
   <si>
     <t xml:space="preserve">/parents/circulars</t>
   </si>
   <si>
-    <t xml:space="preserve">Parents spciefic circulars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/results/{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ data: [ {testname, marks...etc}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data should be an array of results with relevant properites</t>
+    <t xml:space="preserve">/students/results/{studentid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ data: [ {name, maxMarks, marksGot, type, id}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id within the array is test specific id</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/results</t>
   </si>
   <si>
-    <t xml:space="preserve">post/{username, subject, marks etc}</t>
+    <t xml:space="preserve">post/{username, test-name,test-type, max-marks, marks-obtained}</t>
   </si>
   <si>
     <t xml:space="preserve">{status:Boolean}</t>
   </si>
   <si>
+    <t xml:space="preserve">status indicated success of post operation</t>
+  </si>
+  <si>
     <t xml:space="preserve">/students/assignments</t>
   </si>
   <si>
-    <t xml:space="preserve">{ data: [ {name, description...etc}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/assignments/{assignmentName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server should send a file</t>
+    <t xml:space="preserve">{ data: [ {name, maxMarks, description, dueDate, id, text}]}</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/assignments/{assignmentName}</t>
   </si>
   <si>
-    <t xml:space="preserve">post/multipart/form-data (file from a form)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on success send true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/progress/{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ data: [ {subjectName, grade, description...etc}]}</t>
+    <t xml:space="preserve">post/{file:filename, text}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/students/progress/{studentid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ data: [ {name, grade, description, id}]}</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/progress</t>
   </si>
   <si>
-    <t xml:space="preserve">/parents/progress/{parentName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirect to /students/progress/{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/attendence/{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ data: [ {subjectName, attednece...etc}]}</t>
+    <t xml:space="preserve">post/{username, subject-name, max-marks, marks-obtained, description}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/parents/progress/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">parentid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/students/attendence/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">studentid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{ data: [ {name, attednece,remarks}]}</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/attendence/</t>
   </si>
   <si>
-    <t xml:space="preserve">/parents/attendence/{parentName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirect to /students/attendence/{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/parents/fees/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ data:  {balance, month...etc}}</t>
+    <t xml:space="preserve">post/{username, attedence, remarks etc}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/parents/attendence/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">parentid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/parents/fees/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">parentid}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{ data:  {name, cost, description, id}}</t>
   </si>
 </sst>
 </file>
@@ -152,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +261,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +320,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,10 +344,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,14 +573,12 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -527,14 +616,12 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -606,16 +693,16 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -651,15 +738,17 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -777,12 +866,12 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -816,18 +905,10 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -861,9 +942,15 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -899,13 +986,13 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -942,13 +1029,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -984,15 +1071,9 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1027,9 +1108,15 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1065,13 +1152,13 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1108,13 +1195,13 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1150,15 +1237,9 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1193,9 +1274,15 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1230,15 +1317,9 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1420,43 +1501,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/misc/api-specs.xlsx
+++ b/misc/api-specs.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">post/{username,password}</t>
   </si>
   <si>
-    <t xml:space="preserve">{ exists: Boolean, privlage:”teacher/student/parent” }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exists should be true/false</t>
+    <t xml:space="preserve">{ exists: Boolean, privilege:”teacher/student/parent”, class }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exists should be true/false,</t>
   </si>
   <si>
     <t xml:space="preserve">/students/circulars</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">{ data: [ {name, description,date ,id}]}</t>
   </si>
   <si>
-    <t xml:space="preserve">Data should be an array of circulars with relevant properites, all properties are string</t>
+    <t xml:space="preserve">Data should be an array of circulars with relevant properites</t>
   </si>
   <si>
     <t xml:space="preserve">/teachers/circulars</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">/parents/circulars</t>
   </si>
   <si>
-    <t xml:space="preserve">/students/results/{studentid}</t>
+    <t xml:space="preserve">/students/results/{username}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data: [ {name, maxMarks, marksGot, type, id}]}</t>
@@ -112,60 +112,10 @@
     <t xml:space="preserve">post/{username, subject-name, max-marks, marks-obtained, description}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/parents/progress/{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">parentid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/students/attendence/{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">studentid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
+    <t xml:space="preserve">/parents/progress/{parentid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/students/attendence/{studentid}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data: [ {name, attednece,remarks}]}</t>
@@ -177,51 +127,10 @@
     <t xml:space="preserve">post/{username, attedence, remarks etc}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/parents/attendence/{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">parentid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/parents/fees/{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">parentid}</t>
-    </r>
+    <t xml:space="preserve">/parents/attendence/{parentid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/parents/fees/{parentid}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data:  {name, cost, description, id}}</t>
@@ -234,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -261,11 +170,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,10 +224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +475,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="0"/>
@@ -618,7 +518,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0"/>

--- a/misc/api-specs.xlsx
+++ b/misc/api-specs.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">post/{username,password}</t>
   </si>
   <si>
-    <t xml:space="preserve">{ exists: Boolean, privilege:”teacher/student/parent”, class }</t>
+    <t xml:space="preserve">{ exists: Boolean, privilege:”teacher/student/parent”, userClass }</t>
   </si>
   <si>
     <t xml:space="preserve">Exists should be true/false,</t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/misc/api-specs.xlsx
+++ b/misc/api-specs.xlsx
@@ -94,13 +94,13 @@
     <t xml:space="preserve">{ data: [ {name, maxMarks, description, dueDate, id, text}]}</t>
   </si>
   <si>
-    <t xml:space="preserve">/teachers/assignments/{assignmentName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post/{file:filename, text}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/progress/{studentid}</t>
+    <t xml:space="preserve">/teachers/assignments/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post/{file:filename, text, userClass}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/students/progress/{username}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data: [ {name, grade, description, id}]}</t>
@@ -112,10 +112,10 @@
     <t xml:space="preserve">post/{username, subject-name, max-marks, marks-obtained, description}</t>
   </si>
   <si>
-    <t xml:space="preserve">/parents/progress/{parentid}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/students/attendence/{studentid}</t>
+    <t xml:space="preserve">/parents/progress/{username}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/students/attendence/{username}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data: [ {name, attednece,remarks}]}</t>
@@ -127,10 +127,10 @@
     <t xml:space="preserve">post/{username, attedence, remarks etc}</t>
   </si>
   <si>
-    <t xml:space="preserve">/parents/attendence/{parentid}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/parents/fees/{parentid}</t>
+    <t xml:space="preserve">/parents/attendence/{username}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/parents/fees/{username}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data:  {name, cost, description, id}}</t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/misc/api-specs.xlsx
+++ b/misc/api-specs.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">status indicated success of post operation</t>
   </si>
   <si>
-    <t xml:space="preserve">/students/assignments</t>
+    <t xml:space="preserve">/students/assignments/{userClass}</t>
   </si>
   <si>
     <t xml:space="preserve">{ data: [ {name, maxMarks, description, dueDate, id, text}]}</t>
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
